--- a/Commons/InventoryWebApp/src/main/webapp/WEB-INF/Templates/库存管理模版.xlsx
+++ b/Commons/InventoryWebApp/src/main/webapp/WEB-INF/Templates/库存管理模版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12615"/>
+    <workbookView windowWidth="20565" windowHeight="8205"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,11 +12,15 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <oleSize ref="A1:G2"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+  <si>
+    <t>区域</t>
+  </si>
   <si>
     <t>设备名称</t>
   </si>
@@ -37,6 +41,9 @@
   </si>
   <si>
     <t>供应商名称</t>
+  </si>
+  <si>
+    <t>请先创建好区域</t>
   </si>
   <si>
     <t>XXX交换机</t>
@@ -56,10 +63,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -75,13 +82,6 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -93,6 +93,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -102,29 +140,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,6 +153,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -145,8 +176,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,36 +186,35 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -193,30 +224,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,13 +250,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -261,25 +370,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,54 +406,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -351,79 +418,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,32 +460,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,6 +496,50 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -527,26 +554,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -555,10 +562,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -567,133 +574,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1055,25 +1062,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19:E20"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="16.125" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="5" width="11.125" customWidth="1"/>
-    <col min="6" max="6" width="13.875" customWidth="1"/>
-    <col min="7" max="7" width="17.75" customWidth="1"/>
+    <col min="1" max="1" width="19.375" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="6" width="11.125" customWidth="1"/>
+    <col min="7" max="7" width="13.875" customWidth="1"/>
+    <col min="8" max="8" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1095,28 +1103,34 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Commons/InventoryWebApp/src/main/webapp/WEB-INF/Templates/库存管理模版.xlsx
+++ b/Commons/InventoryWebApp/src/main/webapp/WEB-INF/Templates/库存管理模版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20565" windowHeight="8205"/>
+    <workbookView windowWidth="28800" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <oleSize ref="A1:G2"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>区域</t>
   </si>
@@ -28,16 +27,16 @@
     <t>设备型号</t>
   </si>
   <si>
-    <t>使用范围</t>
-  </si>
-  <si>
     <t>价格</t>
   </si>
   <si>
     <t>计量单位</t>
   </si>
   <si>
-    <t>维保</t>
+    <t>项目名称</t>
+  </si>
+  <si>
+    <t>项目编号</t>
   </si>
   <si>
     <t>供应商名称</t>
@@ -52,9 +51,6 @@
     <t>XXX</t>
   </si>
   <si>
-    <t>中小学网络</t>
-  </si>
-  <si>
     <t>xxx</t>
   </si>
 </sst>
@@ -63,10 +59,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -80,6 +76,58 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -93,14 +141,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -110,7 +150,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -118,27 +173,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -146,77 +180,39 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,6 +246,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -262,37 +294,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,133 +420,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,7 +457,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,7 +496,33 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,38 +544,12 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -562,10 +558,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -574,133 +570,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1067,7 +1063,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
@@ -1075,10 +1071,10 @@
     <col min="1" max="1" width="19.375" customWidth="1"/>
     <col min="2" max="2" width="16.125" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="6" width="11.125" customWidth="1"/>
-    <col min="7" max="7" width="13.875" customWidth="1"/>
-    <col min="8" max="8" width="17.75" customWidth="1"/>
+    <col min="4" max="5" width="11.125" customWidth="1"/>
+    <col min="6" max="6" width="13.875" customWidth="1"/>
+    <col min="7" max="7" width="17.75" customWidth="1"/>
+    <col min="8" max="8" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1121,16 +1117,16 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Commons/InventoryWebApp/src/main/webapp/WEB-INF/Templates/库存管理模版.xlsx
+++ b/Commons/InventoryWebApp/src/main/webapp/WEB-INF/Templates/库存管理模版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420"/>
+    <workbookView windowWidth="24225" windowHeight="11820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>区域</t>
   </si>
@@ -27,6 +27,9 @@
     <t>设备型号</t>
   </si>
   <si>
+    <t>入库数量</t>
+  </si>
+  <si>
     <t>价格</t>
   </si>
   <si>
@@ -42,6 +45,9 @@
     <t>供应商名称</t>
   </si>
   <si>
+    <t>是否代理商品</t>
+  </si>
+  <si>
     <t>请先创建好区域</t>
   </si>
   <si>
@@ -52,6 +58,9 @@
   </si>
   <si>
     <t>xxx</t>
+  </si>
+  <si>
+    <t>否</t>
   </si>
 </sst>
 </file>
@@ -59,9 +68,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -82,6 +91,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -95,33 +111,65 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -133,39 +181,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,53 +220,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,187 +255,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,15 +462,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -473,6 +473,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,19 +528,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,26 +549,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,10 +567,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -570,133 +579,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1058,26 +1067,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="19.375" customWidth="1"/>
     <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="5" width="11.125" customWidth="1"/>
-    <col min="6" max="6" width="13.875" customWidth="1"/>
-    <col min="7" max="7" width="17.75" customWidth="1"/>
-    <col min="8" max="8" width="17.125" customWidth="1"/>
+    <col min="3" max="4" width="15" customWidth="1"/>
+    <col min="5" max="6" width="11.125" customWidth="1"/>
+    <col min="7" max="7" width="13.875" customWidth="1"/>
+    <col min="8" max="8" width="17.75" customWidth="1"/>
+    <col min="9" max="9" width="17.125" customWidth="1"/>
+    <col min="10" max="10" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1102,34 +1112,59 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:D$1048576">
+      <formula1>0</formula1>
+      <formula2>9999999</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576">
+      <formula1>0</formula1>
+      <formula2>99999999</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J$1:J$1048576">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/Commons/InventoryWebApp/src/main/webapp/WEB-INF/Templates/库存管理模版.xlsx
+++ b/Commons/InventoryWebApp/src/main/webapp/WEB-INF/Templates/库存管理模版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="11820"/>
+    <workbookView windowWidth="28125" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>区域</t>
   </si>
@@ -25,6 +25,9 @@
   </si>
   <si>
     <t>设备型号</t>
+  </si>
+  <si>
+    <t>品牌</t>
   </si>
   <si>
     <t>入库数量</t>
@@ -68,10 +71,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -91,6 +94,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -98,7 +108,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -106,6 +116,37 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -119,44 +160,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -181,54 +184,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,31 +258,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,151 +438,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,15 +528,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -551,6 +545,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -567,10 +570,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -579,42 +582,42 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -624,88 +627,88 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1067,27 +1070,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="19.375" customWidth="1"/>
     <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="4" width="15" customWidth="1"/>
-    <col min="5" max="6" width="11.125" customWidth="1"/>
-    <col min="7" max="7" width="13.875" customWidth="1"/>
-    <col min="8" max="8" width="17.75" customWidth="1"/>
-    <col min="9" max="9" width="17.125" customWidth="1"/>
-    <col min="10" max="10" width="17.25" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="28.25" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="7" width="11.125" customWidth="1"/>
+    <col min="8" max="8" width="13.875" customWidth="1"/>
+    <col min="9" max="9" width="17.75" customWidth="1"/>
+    <col min="10" max="10" width="17.125" customWidth="1"/>
+    <col min="11" max="11" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1118,51 +1123,56 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D2"/>
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
-        <v>13</v>
+      <c r="F2">
+        <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
         <v>14</v>
       </c>
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:D$1048576">
+  <dataValidations count="4">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="输    入   提     示！" prompt="品牌名称需要与已有品牌一致，新品牌可自动创建" sqref="D$1:D$1048576"/>
+    <dataValidation type="whole" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576">
       <formula1>0</formula1>
       <formula2>9999999</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K$1:K$1048576">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F$1:F$1048576">
       <formula1>0</formula1>
       <formula2>99999999</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J$1:J$1048576">
-      <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
